--- a/工程管理/【仕様】工程管理設計.xlsx
+++ b/工程管理/【仕様】工程管理設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJ\シモダ\Github\工程管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62724517-DCBC-4AE9-8314-DC8EF070666E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE36054-E966-43DF-BC4F-8B3EF2E532F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21980" yWindow="170" windowWidth="16460" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38310" yWindow="-11030" windowWidth="21780" windowHeight="18930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>工程管理用設計メモ</t>
     <rPh sb="0" eb="2">
@@ -42,12 +42,104 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>参照tbx</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘッダーkex</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>system\kex\新工程入力.kex</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アドレス/cmx名</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S:新規引用</t>
+    <rPh sb="2" eb="6">
+      <t>シンキインヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&amp;sMasta情報取得cmx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>情報更新</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&amp;サブと工程更新cmx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Subのみ挿入</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&amp;サブのみ反映cmx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&amp;DataPlateCMX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下版予定表</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#代入( &amp;PrintMode , 4 )</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製版予定表</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#代入( &amp;PrintMode , 3 )</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業問題置き場</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&amp;MenuIssueCmx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#代入( &amp;ActiveID , [伝票ＮＯ] )</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,8 +161,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,8 +182,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -92,14 +209,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -127,10 +289,10 @@
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>356275</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>44942</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>610755</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -153,8 +315,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="696865" y="1517650"/>
-          <a:ext cx="10225810" cy="7455392"/>
+          <a:off x="696865" y="1479550"/>
+          <a:ext cx="7838690" cy="5715000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -228,10 +390,10 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>head</a:t>
+            <a:t>S:</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" baseline="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -240,41 +402,8 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t> Smasta</a:t>
+            <a:t>新規引用</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>引用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>cmx</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -289,9 +418,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -309,7 +438,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1781175" y="1174750"/>
-          <a:ext cx="498475" cy="965200"/>
+          <a:ext cx="231775" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -391,7 +520,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -400,53 +529,8 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>head</a:t>
+            <a:t>情報更新</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> Smasta</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>引用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>cmx</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -454,16 +538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>206375</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -479,9 +563,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2847975" y="876300"/>
-          <a:ext cx="117475" cy="1244600"/>
+        <a:xfrm flipH="1">
+          <a:off x="2590800" y="876300"/>
+          <a:ext cx="257175" cy="1041400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -572,10 +656,10 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>head</a:t>
+            <a:t>Sub</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" baseline="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="75000"/>
@@ -584,41 +668,8 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t> Smasta</a:t>
+            <a:t>のみ挿入</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>引用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>cmx</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -626,16 +677,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -652,8 +703,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3746500" y="1295400"/>
-          <a:ext cx="339725" cy="774700"/>
+          <a:off x="3073400" y="1295400"/>
+          <a:ext cx="1012825" cy="641350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -945,23 +996,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="13" width="8.6640625" style="1"/>
+    <col min="14" max="14" width="14.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1">
+    <row r="1" spans="1:16" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="2" customFormat="1"/>
+    <row r="2" spans="1:16" s="2" customFormat="1"/>
+    <row r="4" spans="1:16">
+      <c r="N4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="N5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="18" thickBot="1">
+      <c r="N6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" ht="18" thickTop="1">
+      <c r="N7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="N8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18" thickBot="1">
+      <c r="N9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" ht="18" thickTop="1">
+      <c r="N10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="N11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="N12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
